--- a/va_facility_data_2025-02-20/Grand Junction VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Grand%20Junction%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grand Junction VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Grand%20Junction%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb9956d8c9b0549fba20e4c35df0c1985"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0643c41e5e524f588fccd999b100598d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd734c6ecce474e1788cb914f33a7e2e1"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R76ad882dbab4442a8c8a91e928053354"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R54bcbca59c0d426eb73bd6bd859bde9c"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5197bb3c526b4314ac576671dfd0cf5b"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd44930a094bb4c76a82b606d9637ff86"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Raafa167986284eedb8900ec965f5b956"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf6aa08e954db466faa31bbe2806b927e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd0b47f75f2d344f7a88e3886a5a6bab4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Re91c055b16c846a88ef82cfa0be192ed"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R47a0a322af544dc7b6793630798dcd0c"/>
   </x:sheets>
 </x:workbook>
 </file>
